--- a/raport_3.xlsx
+++ b/raport_3.xlsx
@@ -12,12 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Projekt</t>
-  </si>
-  <si>
-    <t>Projekt1</t>
   </si>
   <si>
     <t>Projekt2</t>
@@ -74,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -90,36 +87,27 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>234.0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>28.0</v>
+        <v>96.75</v>
       </c>
       <c r="C3" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>46.0</v>
+        <v>96.75</v>
       </c>
     </row>
   </sheetData>
